--- a/data_year/zb/农业/平均每一农业劳动力生产的主要农产品.xlsx
+++ b/data_year/zb/农业/平均每一农业劳动力生产的主要农产品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,389 +478,93 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.475492799697</v>
+        <v>461.449911420698</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4451160391354</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>21.3813792043995</v>
+      </c>
+      <c r="D2" t="n">
+        <v>767.625509089303</v>
+      </c>
       <c r="E2" t="n">
-        <v>89.9364712200273</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>115.858275111243</v>
+      </c>
+      <c r="F2" t="n">
+        <v>306.175597668605</v>
+      </c>
       <c r="G2" t="n">
-        <v>1406.72779868139</v>
+        <v>1960.1032067998</v>
       </c>
       <c r="H2" t="n">
-        <v>232.397403981647</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>430.720275243441</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2334.98445183014</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.081201585241</v>
+        <v>511.653148141167</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3176449507743</v>
+        <v>23.96992663</v>
       </c>
       <c r="D3" t="n">
-        <v>413.852246188993</v>
+        <v>827.17907109429</v>
       </c>
       <c r="E3" t="n">
-        <v>87.8149322181016</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>120.13608334454</v>
+      </c>
+      <c r="F3" t="n">
+        <v>315.525922953124</v>
+      </c>
       <c r="G3" t="n">
-        <v>1387.42398302784</v>
+        <v>2075.22803667398</v>
       </c>
       <c r="H3" t="n">
-        <v>265.29736144374</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>454.732021536231</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2467.9178869431</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.760669133458</v>
+        <v>555.4166508414841</v>
       </c>
       <c r="C4" t="n">
-        <v>15.2579039479661</v>
+        <v>25.1393835025011</v>
       </c>
       <c r="D4" t="n">
-        <v>446.12743787649</v>
+        <v>884.6120034980891</v>
       </c>
       <c r="E4" t="n">
-        <v>89.9172390843906</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>126.375904955333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>329.195352656606</v>
+      </c>
       <c r="G4" t="n">
-        <v>1418.51713867005</v>
+        <v>2167.98767846266</v>
       </c>
       <c r="H4" t="n">
-        <v>319.442082947609</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>238.782471109325</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.3666157629161</v>
-      </c>
-      <c r="D5" t="n">
-        <v>459.047004520848</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88.8850815063275</v>
-      </c>
-      <c r="F5" t="n">
-        <v>220.264533411523</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1361.87755191017</v>
-      </c>
-      <c r="H5" t="n">
-        <v>304.87312690409</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1708.52594782037</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>271.410472118693</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20.4460262753851</v>
-      </c>
-      <c r="D6" t="n">
-        <v>496.022141646826</v>
-      </c>
-      <c r="E6" t="n">
-        <v>99.1311318531326</v>
-      </c>
-      <c r="F6" t="n">
-        <v>224.611669528133</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1517.95225236549</v>
-      </c>
-      <c r="H6" t="n">
-        <v>309.451249516659</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1780.42506239678</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>291.737730543551</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.8675367121517</v>
-      </c>
-      <c r="D7" t="n">
-        <v>532.2663210821351</v>
-      </c>
-      <c r="E7" t="n">
-        <v>101.603331513216</v>
-      </c>
-      <c r="F7" t="n">
-        <v>240.528590538584</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1598.18264247809</v>
-      </c>
-      <c r="H7" t="n">
-        <v>312.090796465856</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1863.96084093503</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>323.239163741098</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.3655011070529</v>
-      </c>
-      <c r="D8" t="n">
-        <v>575.882513372462</v>
-      </c>
-      <c r="E8" t="n">
-        <v>88.9085473388582</v>
-      </c>
-      <c r="F8" t="n">
-        <v>252.643349631364</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1677.08093029527</v>
-      </c>
-      <c r="H8" t="n">
-        <v>352.223433150488</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1816.78631255917</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>362.400592557751</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.2615144127783</v>
-      </c>
-      <c r="D9" t="n">
-        <v>624.752795340366</v>
-      </c>
-      <c r="E9" t="n">
-        <v>88.4871413975509</v>
-      </c>
-      <c r="F9" t="n">
-        <v>262.352202782615</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1727.90454483067</v>
-      </c>
-      <c r="H9" t="n">
-        <v>419.854270857348</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1944.64098771921</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>397.82718654992</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26.2853318582392</v>
-      </c>
-      <c r="D10" t="n">
-        <v>674.3420423793669</v>
-      </c>
-      <c r="E10" t="n">
-        <v>103.599952582502</v>
-      </c>
-      <c r="F10" t="n">
-        <v>276.514855829447</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1854.98080817797</v>
-      </c>
-      <c r="H10" t="n">
-        <v>470.828573945927</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2078.45291526175</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>434.047141815895</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.6011145414859</v>
-      </c>
-      <c r="D11" t="n">
-        <v>722.874957064303</v>
-      </c>
-      <c r="E11" t="n">
-        <v>111.79701919026</v>
-      </c>
-      <c r="F11" t="n">
-        <v>288.827815248408</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1881.38042250388</v>
-      </c>
-      <c r="H11" t="n">
-        <v>435.116567751416</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2191.2122167129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>461.449911420698</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.3813792043995</v>
-      </c>
-      <c r="D12" t="n">
-        <v>767.625509089303</v>
-      </c>
-      <c r="E12" t="n">
-        <v>115.858275111243</v>
-      </c>
-      <c r="F12" t="n">
-        <v>306.175597668605</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1960.1032067998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>430.720275243441</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2334.98445183014</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>511.653148141167</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23.96992663</v>
-      </c>
-      <c r="D13" t="n">
-        <v>827.17907109429</v>
-      </c>
-      <c r="E13" t="n">
-        <v>120.13608334454</v>
-      </c>
-      <c r="F13" t="n">
-        <v>315.525922953124</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2075.22803667398</v>
-      </c>
-      <c r="H13" t="n">
-        <v>454.732021536231</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2467.9178869431</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>555.4166508414841</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.1393835025011</v>
-      </c>
-      <c r="D14" t="n">
-        <v>884.6120034980891</v>
-      </c>
-      <c r="E14" t="n">
-        <v>126.375904955333</v>
-      </c>
-      <c r="F14" t="n">
-        <v>329.195352656606</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2167.98767846266</v>
-      </c>
-      <c r="H14" t="n">
         <v>495.882792024009</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I4" t="n">
         <v>2606.49412293427</v>
       </c>
     </row>
